--- a/data.xlsx
+++ b/data.xlsx
@@ -3,11 +3,12 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="1" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8964" windowWidth="17280" xWindow="3456" yWindow="3396"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="1" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8964" windowWidth="17280" xWindow="4008" yWindow="2592"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="KAWASUGIRU" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="README.md5" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -374,54 +375,54 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Tsunomaki Watame</t>
+          <t>Tokino Sora</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Tokoyami Towa</t>
+          <t>Roboco</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Kiryu Coco</t>
+          <t>Sakura Miko</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Amane Kanata</t>
+          <t>Hoshimati Suisei</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Himemori Luna</t>
+          <t>Yuujin A</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ookami Mio</t>
+          <t>Akai Haato</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nekomata Okayu</t>
+          <t>Yozora Mel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Inugami Korone</t>
+          <t>Natsuiro Matsuri</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AZKI</t>
+          <t>Aki Rosenthal</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ankimo</t>
+          <t>Shirakami Fubuki</t>
         </is>
       </c>
     </row>
@@ -455,54 +456,154 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Akai Haato</t>
+          <t>Ookami Mio</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Yozora Mel</t>
+          <t>Nekomata Okayu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Natsuiro Matsuri</t>
+          <t>Inugami Korone</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Aki Rosenthal</t>
+          <t>AZKI</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Shirakami Fubuki</t>
+          <t>Ankimo</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tokino Sora</t>
+          <t>Tsunomaki Watame</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Roboco</t>
+          <t>Tokoyami Towa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sakura Miko</t>
+          <t>Kiryu Coco</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hoshimati Suisei</t>
+          <t>Amane Kanata</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Yuujin A</t>
+          <t>Himemori Luna</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>tes1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>tes2</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>tes3</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>tes4</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>tes5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>tes6</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>tes7</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>tes8</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>tes9</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>tes10</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>tes6</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>tes7</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>tes3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>tes4</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>tes10</t>
         </is>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,33 +477,6 @@
       <c r="E4" t="inlineStr">
         <is>
           <t>Ankimo</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Tsunomaki Watame</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Tokoyami Towa</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Kiryu Coco</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Amane Kanata</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Himemori Luna</t>
         </is>
       </c>
     </row>
@@ -593,12 +566,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>tes3</t>
+          <t>tes8</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>tes4</t>
+          <t>tes9</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/data.xlsx
+++ b/data.xlsx
@@ -7,8 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="KAWASUGIRU" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="README.md5" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="README.md5" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -375,208 +374,108 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Tokino Sora</t>
+          <t>tes1</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Roboco</t>
+          <t>tes2</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Sakura Miko</t>
+          <t>tes3</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Hoshimati Suisei</t>
+          <t>tes4</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Yuujin A</t>
+          <t>tes5</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Akai Haato</t>
+          <t>tes6</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Yozora Mel</t>
+          <t>tes7</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Natsuiro Matsuri</t>
+          <t>tes8</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Aki Rosenthal</t>
+          <t>tes9</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Shirakami Fubuki</t>
+          <t>tes10</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Oozora Subaru</t>
+          <t>nilai1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Yuzuki Choco</t>
+          <t>nilai2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Murasaki Shion</t>
+          <t>nilai3</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Nakiri Ayame</t>
+          <t>nilai4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Minato Aqua</t>
+          <t>nilai5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ookami Mio</t>
+          <t>nilai3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nekomata Okayu</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Inugami Korone</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>AZKI</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ankimo</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>tes1</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>tes2</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>tes3</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>tes4</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>tes5</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>tes6</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>tes7</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>tes8</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>tes9</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>tes10</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>tes6</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>tes7</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>tes8</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>tes9</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>tes10</t>
+          <t>n5</t>
         </is>
       </c>
     </row>
